--- a/DatosOriginales.xlsx
+++ b/DatosOriginales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\trabajo\Learning\The Learning Gate\Análisis Causal y Predictivo Utilizando Regresión\Reto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgrb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20241BED-C413-40E8-9024-C337AE67F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F018122A-4445-45B2-BDE1-F28E1E0502EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFF5F007-AD0B-4C72-84ED-5F067CE892D8}"/>
+    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BFF5F007-AD0B-4C72-84ED-5F067CE892D8}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosOriginales" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="314">
   <si>
     <t>Airline</t>
   </si>
@@ -974,6 +974,12 @@
   </si>
   <si>
     <t>22/09/2018</t>
+  </si>
+  <si>
+    <t>Origin2</t>
+  </si>
+  <si>
+    <t>Dia3</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,1078 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1046,6 +2123,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3BDC8B-34DC-4FB1-BB25-89E8AABC3C79}" name="Tabla1" displayName="Tabla1" ref="A1:AM109" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+  <autoFilter ref="A1:AM109" xr:uid="{1E3BDC8B-34DC-4FB1-BB25-89E8AABC3C79}"/>
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{2B9FC875-AAAD-4FD1-A33D-CC940E5BA49B}" name="Airline" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{B31FCD0C-BC0C-438B-9DCC-13208804883C}" name="AA" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{57BD6A63-ECF8-4B84-80FA-5FE2BF3FA2F4}" name="Delta" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{E5E20944-0A5B-437C-A0FC-839F592093F1}" name="United" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{8578A638-0457-42B1-B24A-DF69BF323E26}" name="Airport Code-1" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{AE9B6507-5EFE-4072-8B8F-1E3E318A6D56}" name="Airport Code" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{20688F3A-7368-4F8A-BC40-1D7D402CBBD4}" name="Airport Name" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{8E63608E-F16C-426E-8757-569A5437AE1C}" name="Days from Purchase to Travel" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{57C64951-3107-4F3C-AA27-8A19F4DA91B7}" name="Fare Type" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{60AA6ED7-1133-42E0-B67D-46384BE59B1F}" name="Business" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{40303654-5BCC-4994-B206-868F9AFE6F53}" name="First Class" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{303F31F5-FCC6-4D22-B9BD-8CBE5C549516}" name="Latitude" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{3988FB30-ED2E-4E59-A6CF-6B5137243174}" name="Longitude" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{7E716F3D-FFED-40F5-81A4-2B64A027B841}" name="Número de registros" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{C3F3D45D-8ED1-4614-B1F9-4C92BB35A266}" name="Passenger Email" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{E8063676-7FD7-4ECA-9B35-F0B5EE100E6D}" name="Person-1" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{5752DDD4-7D89-4FFC-8DB3-D1A55BC4C6FF}" name="Person" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{C30E16C9-B252-4F84-828C-1D0BB5FFAB4B}" name="Purchase Date" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{608F63DE-39CE-4E10-825F-73D3AC9FD788}" name="Origin" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{F7E40EC6-FDF1-4AAD-B63D-162B070B3DA0}" name="Destination" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{A221CE6A-2666-4F3C-86EC-55A771640DC9}" name="Route Point" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{F253774F-01E5-4846-A195-C05705956C70}" name="Origin2" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{A55F3FF1-649F-4E55-85FC-ADB717060605}" name="Route" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{291C0DBD-9170-423F-BF19-918C0BC0E405}" name="Row ID" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{BAC973B7-9FF9-44A5-8D3D-86D9FCD77740}" name="Ticket Price" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{CA56A1E0-6A86-4D93-8EE8-10D318D5AE08}" name="Travel Date" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{7BCFEE61-6DAB-4D4F-9093-85D54E8AB01E}" name="Dia" dataDxfId="35">
+      <calculatedColumnFormula>Z2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{DF11A667-30F6-4314-96E2-7E17D099D4B5}" name="Dia3" dataDxfId="34"/>
+    <tableColumn id="29" xr3:uid="{E352B32E-872B-4171-B179-7358B4E853E0}" name="Lunes" dataDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{10229730-2068-4404-856C-98ED76303B29}" name="Martes" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{1C8C22CB-F3BC-4001-94F7-CF250641692E}" name="Miércoles" dataDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{5AAF739B-3601-4CCE-8693-8848A8B454CA}" name="Jueves" dataDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{5541F0B9-3058-40A9-BC75-303B69FB3BEA}" name="Viernes" dataDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{3C18CD20-1C29-461D-A107-95C1DFD4BDA3}" name="Sábado" dataDxfId="28"/>
+    <tableColumn id="35" xr3:uid="{FFD1FAF5-8CD6-4162-85A2-83DF1870E51B}" name="Trips" dataDxfId="27"/>
+    <tableColumn id="36" xr3:uid="{45985C85-3490-46E7-BEA8-7983B2B2A5C4}" name="Type of Traveler" dataDxfId="26"/>
+    <tableColumn id="37" xr3:uid="{D523C048-6CA4-4BD5-B547-E7A158B3411A}" name="Infrequent" dataDxfId="25"/>
+    <tableColumn id="38" xr3:uid="{C7811A87-87D9-41CF-BE47-77F84E40D84E}" name="Frequent" dataDxfId="24"/>
+    <tableColumn id="39" xr3:uid="{C29E78A4-B52F-4F91-94B0-969DB4F38084}" name="Extreme" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B39EDEF3-C234-47E3-B24E-88FFDACC426D}" name="Tabla2" displayName="Tabla2" ref="A1:S109" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:S109" xr:uid="{B39EDEF3-C234-47E3-B24E-88FFDACC426D}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{E5FC5321-9231-4F9E-BE83-91BF4265B523}" name="AA" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{9B6F7C04-1EAB-4CEA-9AEF-7C7C032AED21}" name="Delta" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{AD778FD5-9DB5-4F62-9217-E677DD6ED185}" name="United" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{5577E930-F05C-470A-B4B1-1F319A9EFE12}" name="Days from Purchase to Travel" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{179F7918-5D40-4BB0-8B3F-EC8575DF7F63}" name="Business" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{51A1D336-0988-46E6-B363-8871F1C6279A}" name="First Class" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{2A13CCFA-7405-4F4A-B151-9A272BD77C51}" name="Origin" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{868162D8-43D7-4879-B556-C079220DA1DC}" name="Ticket Price" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{C7FD78D8-593A-4B59-9614-33BD51FFEEFE}" name="Lunes" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{6620E84C-82F3-4144-87F5-A4104A2E8D1E}" name="Martes" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{AABAD5A7-0777-48FD-9A41-9587AB1E9B0C}" name="Miércoles" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{31BA6A54-7B47-458D-9D09-5A0A45789F89}" name="Jueves" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{31D838CC-3F71-43EC-B8F9-2E691D7093E7}" name="Viernes" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{CED237EC-436D-4017-944A-53EC0469A9F4}" name="Sábado" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{D273537E-DE19-4096-BDED-218B277D55DB}" name="Trips" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{D1E17CDE-81A9-4D27-8666-4105B7A97CFC}" name="Type of Traveler" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{85605BDF-052F-4EF0-89AA-BB07E609C825}" name="Infrequent" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{2285BA14-D4DF-4BF1-9493-2970FF0F1ADD}" name="Frequent" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{3811A49A-8054-4081-A531-16CB9807D67F}" name="Extreme" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1347,21 +2502,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ECCADF-BD6D-4F2A-B166-8B06860B722A}">
   <dimension ref="A1:AM109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y52" workbookViewId="0">
-      <selection activeCell="AA61" sqref="AA61"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:AM109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="6"/>
-    <col min="27" max="27" width="37.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -1429,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
@@ -1447,7 +2631,7 @@
         <v>25</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>26</v>
@@ -14448,6 +15632,9 @@
     <sortCondition ref="AB2:AB109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14455,30 +15642,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83C09F-8007-4FFF-A686-9BCFCAE9AF8B}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -20914,10 +22102,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BECEB43D6550CC4EA3D435F0126725D3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cb35c3687ff0a4d13b864c5a581a7c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="061535f3-084e-4a23-910b-5eeffd71f4ab" xmlns:ns3="26f4caf0-472e-4927-9146-4d3095ca16d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8471f2a221bb11a9974e8699bd0b376e" ns2:_="" ns3:_="">
     <xsd:import namespace="061535f3-084e-4a23-910b-5eeffd71f4ab"/>
@@ -21140,22 +22346,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4B45F8-ECE7-4546-A3EC-0713D5E70070}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753F54F1-1732-4056-AA5F-A24E1A1D2B03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA818E9-5986-43B1-B116-6FE2601E108D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21172,21 +22380,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753F54F1-1732-4056-AA5F-A24E1A1D2B03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4B45F8-ECE7-4546-A3EC-0713D5E70070}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DatosOriginales.xlsx
+++ b/DatosOriginales.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgrb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F018122A-4445-45B2-BDE1-F28E1E0502EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF7D68C-14C6-4BB9-9624-C4F474728EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BFF5F007-AD0B-4C72-84ED-5F067CE892D8}"/>
+    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" xr2:uid="{BFF5F007-AD0B-4C72-84ED-5F067CE892D8}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosOriginales" sheetId="1" r:id="rId1"/>
-    <sheet name="datos para regresión" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DatosOriginales!$A$1:$AJ$1</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="314">
   <si>
     <t>Airline</t>
   </si>
@@ -1041,370 +1040,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <b val="0"/>
@@ -2126,78 +1762,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3BDC8B-34DC-4FB1-BB25-89E8AABC3C79}" name="Tabla1" displayName="Tabla1" ref="A1:AM109" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3BDC8B-34DC-4FB1-BB25-89E8AABC3C79}" name="Tabla1" displayName="Tabla1" ref="A1:AM109" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <autoFilter ref="A1:AM109" xr:uid="{1E3BDC8B-34DC-4FB1-BB25-89E8AABC3C79}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{2B9FC875-AAAD-4FD1-A33D-CC940E5BA49B}" name="Airline" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{B31FCD0C-BC0C-438B-9DCC-13208804883C}" name="AA" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{57BD6A63-ECF8-4B84-80FA-5FE2BF3FA2F4}" name="Delta" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{E5E20944-0A5B-437C-A0FC-839F592093F1}" name="United" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{8578A638-0457-42B1-B24A-DF69BF323E26}" name="Airport Code-1" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{AE9B6507-5EFE-4072-8B8F-1E3E318A6D56}" name="Airport Code" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{20688F3A-7368-4F8A-BC40-1D7D402CBBD4}" name="Airport Name" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{8E63608E-F16C-426E-8757-569A5437AE1C}" name="Days from Purchase to Travel" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{57C64951-3107-4F3C-AA27-8A19F4DA91B7}" name="Fare Type" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{60AA6ED7-1133-42E0-B67D-46384BE59B1F}" name="Business" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{40303654-5BCC-4994-B206-868F9AFE6F53}" name="First Class" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{303F31F5-FCC6-4D22-B9BD-8CBE5C549516}" name="Latitude" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{3988FB30-ED2E-4E59-A6CF-6B5137243174}" name="Longitude" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{7E716F3D-FFED-40F5-81A4-2B64A027B841}" name="Número de registros" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{C3F3D45D-8ED1-4614-B1F9-4C92BB35A266}" name="Passenger Email" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{E8063676-7FD7-4ECA-9B35-F0B5EE100E6D}" name="Person-1" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{5752DDD4-7D89-4FFC-8DB3-D1A55BC4C6FF}" name="Person" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{C30E16C9-B252-4F84-828C-1D0BB5FFAB4B}" name="Purchase Date" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{608F63DE-39CE-4E10-825F-73D3AC9FD788}" name="Origin" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{F7E40EC6-FDF1-4AAD-B63D-162B070B3DA0}" name="Destination" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{A221CE6A-2666-4F3C-86EC-55A771640DC9}" name="Route Point" dataDxfId="41"/>
-    <tableColumn id="22" xr3:uid="{F253774F-01E5-4846-A195-C05705956C70}" name="Origin2" dataDxfId="40"/>
-    <tableColumn id="23" xr3:uid="{A55F3FF1-649F-4E55-85FC-ADB717060605}" name="Route" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{291C0DBD-9170-423F-BF19-918C0BC0E405}" name="Row ID" dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{BAC973B7-9FF9-44A5-8D3D-86D9FCD77740}" name="Ticket Price" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{CA56A1E0-6A86-4D93-8EE8-10D318D5AE08}" name="Travel Date" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{7BCFEE61-6DAB-4D4F-9093-85D54E8AB01E}" name="Dia" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{2B9FC875-AAAD-4FD1-A33D-CC940E5BA49B}" name="Airline" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{B31FCD0C-BC0C-438B-9DCC-13208804883C}" name="AA" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{57BD6A63-ECF8-4B84-80FA-5FE2BF3FA2F4}" name="Delta" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E5E20944-0A5B-437C-A0FC-839F592093F1}" name="United" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{8578A638-0457-42B1-B24A-DF69BF323E26}" name="Airport Code-1" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{AE9B6507-5EFE-4072-8B8F-1E3E318A6D56}" name="Airport Code" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{20688F3A-7368-4F8A-BC40-1D7D402CBBD4}" name="Airport Name" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{8E63608E-F16C-426E-8757-569A5437AE1C}" name="Days from Purchase to Travel" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{57C64951-3107-4F3C-AA27-8A19F4DA91B7}" name="Fare Type" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{60AA6ED7-1133-42E0-B67D-46384BE59B1F}" name="Business" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{40303654-5BCC-4994-B206-868F9AFE6F53}" name="First Class" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{303F31F5-FCC6-4D22-B9BD-8CBE5C549516}" name="Latitude" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{3988FB30-ED2E-4E59-A6CF-6B5137243174}" name="Longitude" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{7E716F3D-FFED-40F5-81A4-2B64A027B841}" name="Número de registros" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{C3F3D45D-8ED1-4614-B1F9-4C92BB35A266}" name="Passenger Email" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{E8063676-7FD7-4ECA-9B35-F0B5EE100E6D}" name="Person-1" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{5752DDD4-7D89-4FFC-8DB3-D1A55BC4C6FF}" name="Person" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{C30E16C9-B252-4F84-828C-1D0BB5FFAB4B}" name="Purchase Date" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{608F63DE-39CE-4E10-825F-73D3AC9FD788}" name="Origin" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{F7E40EC6-FDF1-4AAD-B63D-162B070B3DA0}" name="Destination" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{A221CE6A-2666-4F3C-86EC-55A771640DC9}" name="Route Point" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{F253774F-01E5-4846-A195-C05705956C70}" name="Origin2" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{A55F3FF1-649F-4E55-85FC-ADB717060605}" name="Route" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{291C0DBD-9170-423F-BF19-918C0BC0E405}" name="Row ID" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{BAC973B7-9FF9-44A5-8D3D-86D9FCD77740}" name="Ticket Price" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{CA56A1E0-6A86-4D93-8EE8-10D318D5AE08}" name="Travel Date" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{7BCFEE61-6DAB-4D4F-9093-85D54E8AB01E}" name="Dia" dataDxfId="14">
       <calculatedColumnFormula>Z2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{DF11A667-30F6-4314-96E2-7E17D099D4B5}" name="Dia3" dataDxfId="34"/>
-    <tableColumn id="29" xr3:uid="{E352B32E-872B-4171-B179-7358B4E853E0}" name="Lunes" dataDxfId="33"/>
-    <tableColumn id="30" xr3:uid="{10229730-2068-4404-856C-98ED76303B29}" name="Martes" dataDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{1C8C22CB-F3BC-4001-94F7-CF250641692E}" name="Miércoles" dataDxfId="31"/>
-    <tableColumn id="32" xr3:uid="{5AAF739B-3601-4CCE-8693-8848A8B454CA}" name="Jueves" dataDxfId="30"/>
-    <tableColumn id="33" xr3:uid="{5541F0B9-3058-40A9-BC75-303B69FB3BEA}" name="Viernes" dataDxfId="29"/>
-    <tableColumn id="34" xr3:uid="{3C18CD20-1C29-461D-A107-95C1DFD4BDA3}" name="Sábado" dataDxfId="28"/>
-    <tableColumn id="35" xr3:uid="{FFD1FAF5-8CD6-4162-85A2-83DF1870E51B}" name="Trips" dataDxfId="27"/>
-    <tableColumn id="36" xr3:uid="{45985C85-3490-46E7-BEA8-7983B2B2A5C4}" name="Type of Traveler" dataDxfId="26"/>
-    <tableColumn id="37" xr3:uid="{D523C048-6CA4-4BD5-B547-E7A158B3411A}" name="Infrequent" dataDxfId="25"/>
-    <tableColumn id="38" xr3:uid="{C7811A87-87D9-41CF-BE47-77F84E40D84E}" name="Frequent" dataDxfId="24"/>
-    <tableColumn id="39" xr3:uid="{C29E78A4-B52F-4F91-94B0-969DB4F38084}" name="Extreme" dataDxfId="23"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B39EDEF3-C234-47E3-B24E-88FFDACC426D}" name="Tabla2" displayName="Tabla2" ref="A1:S109" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:S109" xr:uid="{B39EDEF3-C234-47E3-B24E-88FFDACC426D}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E5FC5321-9231-4F9E-BE83-91BF4265B523}" name="AA" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{9B6F7C04-1EAB-4CEA-9AEF-7C7C032AED21}" name="Delta" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{AD778FD5-9DB5-4F62-9217-E677DD6ED185}" name="United" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{5577E930-F05C-470A-B4B1-1F319A9EFE12}" name="Days from Purchase to Travel" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{179F7918-5D40-4BB0-8B3F-EC8575DF7F63}" name="Business" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{51A1D336-0988-46E6-B363-8871F1C6279A}" name="First Class" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{2A13CCFA-7405-4F4A-B151-9A272BD77C51}" name="Origin" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{868162D8-43D7-4879-B556-C079220DA1DC}" name="Ticket Price" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{C7FD78D8-593A-4B59-9614-33BD51FFEEFE}" name="Lunes" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{6620E84C-82F3-4144-87F5-A4104A2E8D1E}" name="Martes" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{AABAD5A7-0777-48FD-9A41-9587AB1E9B0C}" name="Miércoles" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{31BA6A54-7B47-458D-9D09-5A0A45789F89}" name="Jueves" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{31D838CC-3F71-43EC-B8F9-2E691D7093E7}" name="Viernes" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{CED237EC-436D-4017-944A-53EC0469A9F4}" name="Sábado" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D273537E-DE19-4096-BDED-218B277D55DB}" name="Trips" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{D1E17CDE-81A9-4D27-8666-4105B7A97CFC}" name="Type of Traveler" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{85605BDF-052F-4EF0-89AA-BB07E609C825}" name="Infrequent" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{2285BA14-D4DF-4BF1-9493-2970FF0F1ADD}" name="Frequent" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{3811A49A-8054-4081-A531-16CB9807D67F}" name="Extreme" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{DF11A667-30F6-4314-96E2-7E17D099D4B5}" name="Dia3" dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{E352B32E-872B-4171-B179-7358B4E853E0}" name="Lunes" dataDxfId="12"/>
+    <tableColumn id="30" xr3:uid="{10229730-2068-4404-856C-98ED76303B29}" name="Martes" dataDxfId="11"/>
+    <tableColumn id="31" xr3:uid="{1C8C22CB-F3BC-4001-94F7-CF250641692E}" name="Miércoles" dataDxfId="10"/>
+    <tableColumn id="32" xr3:uid="{5AAF739B-3601-4CCE-8693-8848A8B454CA}" name="Jueves" dataDxfId="9"/>
+    <tableColumn id="33" xr3:uid="{5541F0B9-3058-40A9-BC75-303B69FB3BEA}" name="Viernes" dataDxfId="8"/>
+    <tableColumn id="34" xr3:uid="{3C18CD20-1C29-461D-A107-95C1DFD4BDA3}" name="Sábado" dataDxfId="7"/>
+    <tableColumn id="35" xr3:uid="{FFD1FAF5-8CD6-4162-85A2-83DF1870E51B}" name="Trips" dataDxfId="6"/>
+    <tableColumn id="36" xr3:uid="{45985C85-3490-46E7-BEA8-7983B2B2A5C4}" name="Type of Traveler" dataDxfId="5"/>
+    <tableColumn id="37" xr3:uid="{D523C048-6CA4-4BD5-B547-E7A158B3411A}" name="Infrequent" dataDxfId="4"/>
+    <tableColumn id="38" xr3:uid="{C7811A87-87D9-41CF-BE47-77F84E40D84E}" name="Frequent" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{C29E78A4-B52F-4F91-94B0-969DB4F38084}" name="Extreme" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2502,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ECCADF-BD6D-4F2A-B166-8B06860B722A}">
   <dimension ref="A1:AM109"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection sqref="A1:AM109"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15631,6476 +15239,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM109">
     <sortCondition ref="AB2:AB109"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83C09F-8007-4FFF-A686-9BCFCAE9AF8B}">
-  <dimension ref="A1:S109"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>409</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>88</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>420</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>440</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>613</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>9</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>301</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>7</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>336</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>309</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>8</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>88</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>420</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>613</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>301</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>7</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>78</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>305</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>17</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>344</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>13</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>415</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>445</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>301</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>425</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>6</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>350</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>1</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>8</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>423</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>1</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>5</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>445</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>9</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>301</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>19</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>123</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>300</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>1</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>11</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>425</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>12</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>23</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>300</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>14</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>51</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>334</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>4</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>35</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>309</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>4</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>614</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>1</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>309</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>4</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>300</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>4</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>1</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>614</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>1</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>2</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>23</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>349</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>9</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>416</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>10</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>29</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>334</v>
-      </c>
-      <c r="I33" s="9">
-        <v>1</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>9</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>315</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>6</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>600</v>
-      </c>
-      <c r="I35" s="9">
-        <v>1</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
-        <v>8</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>300</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>17</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>51</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>300</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>17</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>33</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>301</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>11</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>74</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
-        <v>346</v>
-      </c>
-      <c r="I39" s="9">
-        <v>1</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>11</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>300</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>3</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>1</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>106</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>433</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>35</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>338</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9">
-        <v>1</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>5</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>396</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1">
-        <v>6</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>54</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>445</v>
-      </c>
-      <c r="I44" s="9">
-        <v>0</v>
-      </c>
-      <c r="J44" s="9">
-        <v>1</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>7</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1">
-        <v>0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>18</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>620</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9">
-        <v>1</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>6</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1">
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>11</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>365</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-      <c r="J46" s="9">
-        <v>1</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1">
-        <v>7</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>18</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1">
-        <v>620</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9">
-        <v>1</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9">
-        <v>0</v>
-      </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
-        <v>6</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>22</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>307</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9">
-        <v>1</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1">
-        <v>8</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1">
-        <v>0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>115</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>301</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
-        <v>1</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9">
-        <v>0</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-      <c r="O49" s="1">
-        <v>15</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <v>1</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>28</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>442</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-      <c r="J50" s="9">
-        <v>1</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9">
-        <v>0</v>
-      </c>
-      <c r="N50" s="9">
-        <v>0</v>
-      </c>
-      <c r="O50" s="1">
-        <v>4</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>19</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>415</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-      <c r="J51" s="9">
-        <v>1</v>
-      </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9">
-        <v>0</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1">
-        <v>4</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>57</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>425</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="9">
-        <v>1</v>
-      </c>
-      <c r="K52" s="9">
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <v>0</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0</v>
-      </c>
-      <c r="O52" s="1">
-        <v>2</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1">
-        <v>0</v>
-      </c>
-      <c r="S52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>34</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>305</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <v>1</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1">
-        <v>4</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0</v>
-      </c>
-      <c r="S53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>72</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>400</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <v>1</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9">
-        <v>0</v>
-      </c>
-      <c r="N54" s="9">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1">
-        <v>3</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>34</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1">
-        <v>305</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
-        <v>1</v>
-      </c>
-      <c r="K55" s="9">
-        <v>0</v>
-      </c>
-      <c r="L55" s="9">
-        <v>0</v>
-      </c>
-      <c r="M55" s="9">
-        <v>0</v>
-      </c>
-      <c r="N55" s="9">
-        <v>0</v>
-      </c>
-      <c r="O55" s="1">
-        <v>4</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>1</v>
-      </c>
-      <c r="R55" s="1">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1">
-        <v>305</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
-        <v>1</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0</v>
-      </c>
-      <c r="N56" s="9">
-        <v>0</v>
-      </c>
-      <c r="O56" s="1">
-        <v>2</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>1</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>27</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1">
-        <v>600</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
-        <v>1</v>
-      </c>
-      <c r="K57" s="9">
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9">
-        <v>0</v>
-      </c>
-      <c r="N57" s="9">
-        <v>0</v>
-      </c>
-      <c r="O57" s="1">
-        <v>3</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1">
-        <v>0</v>
-      </c>
-      <c r="S57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>66</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>400</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9">
-        <v>0</v>
-      </c>
-      <c r="K58" s="9">
-        <v>1</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
-      <c r="M58" s="9">
-        <v>0</v>
-      </c>
-      <c r="N58" s="9">
-        <v>0</v>
-      </c>
-      <c r="O58" s="1">
-        <v>7</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>0</v>
-      </c>
-      <c r="S58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>38</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>346</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9">
-        <v>1</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9">
-        <v>0</v>
-      </c>
-      <c r="N59" s="9">
-        <v>0</v>
-      </c>
-      <c r="O59" s="1">
-        <v>6</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <v>0</v>
-      </c>
-      <c r="S59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>91</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>309</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
-        <v>0</v>
-      </c>
-      <c r="K60" s="9">
-        <v>1</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0</v>
-      </c>
-      <c r="M60" s="9">
-        <v>0</v>
-      </c>
-      <c r="N60" s="9">
-        <v>0</v>
-      </c>
-      <c r="O60" s="1">
-        <v>6</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1">
-        <v>0</v>
-      </c>
-      <c r="S60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>113</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>370</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>1</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9">
-        <v>0</v>
-      </c>
-      <c r="N61" s="9">
-        <v>0</v>
-      </c>
-      <c r="O61" s="1">
-        <v>9</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1">
-        <v>0</v>
-      </c>
-      <c r="S61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>39</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>315</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-      <c r="J62" s="9">
-        <v>0</v>
-      </c>
-      <c r="K62" s="9">
-        <v>1</v>
-      </c>
-      <c r="L62" s="9">
-        <v>0</v>
-      </c>
-      <c r="M62" s="9">
-        <v>0</v>
-      </c>
-      <c r="N62" s="9">
-        <v>0</v>
-      </c>
-      <c r="O62" s="1">
-        <v>7</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>45</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>401</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-      <c r="J63" s="9">
-        <v>0</v>
-      </c>
-      <c r="K63" s="9">
-        <v>1</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0</v>
-      </c>
-      <c r="M63" s="9">
-        <v>0</v>
-      </c>
-      <c r="N63" s="9">
-        <v>0</v>
-      </c>
-      <c r="O63" s="1">
-        <v>7</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>67</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>309</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0</v>
-      </c>
-      <c r="K64" s="9">
-        <v>1</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0</v>
-      </c>
-      <c r="M64" s="9">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9">
-        <v>0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>10</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>0</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>67</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1">
-        <v>309</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>1</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
-      </c>
-      <c r="O65" s="1">
-        <v>10</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0</v>
-      </c>
-      <c r="S65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1">
-        <v>22</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>305</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0</v>
-      </c>
-      <c r="K66" s="9">
-        <v>1</v>
-      </c>
-      <c r="L66" s="9">
-        <v>0</v>
-      </c>
-      <c r="M66" s="9">
-        <v>0</v>
-      </c>
-      <c r="N66" s="9">
-        <v>0</v>
-      </c>
-      <c r="O66" s="1">
-        <v>13</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1">
-        <v>1</v>
-      </c>
-      <c r="S66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>36</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>338</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-      <c r="J67" s="9">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9">
-        <v>1</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-      <c r="O67" s="1">
-        <v>14</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>1</v>
-      </c>
-      <c r="S67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>22</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1">
-        <v>305</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0</v>
-      </c>
-      <c r="J68" s="9">
-        <v>0</v>
-      </c>
-      <c r="K68" s="9">
-        <v>1</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0</v>
-      </c>
-      <c r="N68" s="9">
-        <v>0</v>
-      </c>
-      <c r="O68" s="1">
-        <v>13</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1">
-        <v>1</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>36</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1">
-        <v>338</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0</v>
-      </c>
-      <c r="J69" s="9">
-        <v>0</v>
-      </c>
-      <c r="K69" s="9">
-        <v>1</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0</v>
-      </c>
-      <c r="M69" s="9">
-        <v>0</v>
-      </c>
-      <c r="N69" s="9">
-        <v>0</v>
-      </c>
-      <c r="O69" s="1">
-        <v>14</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69" s="1">
-        <v>1</v>
-      </c>
-      <c r="S69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>28</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <v>440</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0</v>
-      </c>
-      <c r="K70" s="9">
-        <v>1</v>
-      </c>
-      <c r="L70" s="9">
-        <v>0</v>
-      </c>
-      <c r="M70" s="9">
-        <v>0</v>
-      </c>
-      <c r="N70" s="9">
-        <v>0</v>
-      </c>
-      <c r="O70" s="1">
-        <v>3</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>1</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>56</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>315</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0</v>
-      </c>
-      <c r="J71" s="9">
-        <v>0</v>
-      </c>
-      <c r="K71" s="9">
-        <v>1</v>
-      </c>
-      <c r="L71" s="9">
-        <v>0</v>
-      </c>
-      <c r="M71" s="9">
-        <v>0</v>
-      </c>
-      <c r="N71" s="9">
-        <v>0</v>
-      </c>
-      <c r="O71" s="1">
-        <v>2</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>1</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1">
-        <v>28</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1">
-        <v>440</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
-      <c r="J72" s="9">
-        <v>0</v>
-      </c>
-      <c r="K72" s="9">
-        <v>1</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0</v>
-      </c>
-      <c r="N72" s="9">
-        <v>0</v>
-      </c>
-      <c r="O72" s="1">
-        <v>3</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>1</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>44</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <v>336</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-      <c r="J73" s="9">
-        <v>0</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0</v>
-      </c>
-      <c r="N73" s="9">
-        <v>1</v>
-      </c>
-      <c r="O73" s="1">
-        <v>9</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0</v>
-      </c>
-      <c r="S73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
-        <v>38</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <v>338</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-      <c r="J74" s="9">
-        <v>0</v>
-      </c>
-      <c r="K74" s="9">
-        <v>0</v>
-      </c>
-      <c r="L74" s="9">
-        <v>0</v>
-      </c>
-      <c r="M74" s="9">
-        <v>0</v>
-      </c>
-      <c r="N74" s="9">
-        <v>1</v>
-      </c>
-      <c r="O74" s="1">
-        <v>8</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>43</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>400</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0</v>
-      </c>
-      <c r="J75" s="9">
-        <v>0</v>
-      </c>
-      <c r="K75" s="9">
-        <v>0</v>
-      </c>
-      <c r="L75" s="9">
-        <v>0</v>
-      </c>
-      <c r="M75" s="9">
-        <v>0</v>
-      </c>
-      <c r="N75" s="9">
-        <v>1</v>
-      </c>
-      <c r="O75" s="1">
-        <v>5</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0</v>
-      </c>
-      <c r="R75" s="1">
-        <v>0</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
-        <v>16</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <v>480</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
-      <c r="J76" s="9">
-        <v>0</v>
-      </c>
-      <c r="K76" s="9">
-        <v>0</v>
-      </c>
-      <c r="L76" s="9">
-        <v>0</v>
-      </c>
-      <c r="M76" s="9">
-        <v>0</v>
-      </c>
-      <c r="N76" s="9">
-        <v>1</v>
-      </c>
-      <c r="O76" s="1">
-        <v>6</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1">
-        <v>16</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1">
-        <v>480</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="9">
-        <v>0</v>
-      </c>
-      <c r="K77" s="9">
-        <v>0</v>
-      </c>
-      <c r="L77" s="9">
-        <v>0</v>
-      </c>
-      <c r="M77" s="9">
-        <v>0</v>
-      </c>
-      <c r="N77" s="9">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1">
-        <v>6</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
-        <v>107</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1">
-        <v>301</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-      <c r="J78" s="9">
-        <v>0</v>
-      </c>
-      <c r="K78" s="9">
-        <v>0</v>
-      </c>
-      <c r="L78" s="9">
-        <v>0</v>
-      </c>
-      <c r="M78" s="9">
-        <v>0</v>
-      </c>
-      <c r="N78" s="9">
-        <v>1</v>
-      </c>
-      <c r="O78" s="1">
-        <v>6</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
-      <c r="R78" s="1">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
-        <v>18</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <v>408</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0</v>
-      </c>
-      <c r="J79" s="9">
-        <v>0</v>
-      </c>
-      <c r="K79" s="9">
-        <v>0</v>
-      </c>
-      <c r="L79" s="9">
-        <v>0</v>
-      </c>
-      <c r="M79" s="9">
-        <v>0</v>
-      </c>
-      <c r="N79" s="9">
-        <v>1</v>
-      </c>
-      <c r="O79" s="1">
-        <v>19</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0</v>
-      </c>
-      <c r="S79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <v>43</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>439</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0</v>
-      </c>
-      <c r="J80" s="9">
-        <v>0</v>
-      </c>
-      <c r="K80" s="9">
-        <v>0</v>
-      </c>
-      <c r="L80" s="9">
-        <v>0</v>
-      </c>
-      <c r="M80" s="9">
-        <v>0</v>
-      </c>
-      <c r="N80" s="9">
-        <v>1</v>
-      </c>
-      <c r="O80" s="1">
-        <v>15</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>0</v>
-      </c>
-      <c r="R80" s="1">
-        <v>1</v>
-      </c>
-      <c r="S80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <v>65</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1">
-        <v>315</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
-      <c r="J81" s="9">
-        <v>0</v>
-      </c>
-      <c r="K81" s="9">
-        <v>0</v>
-      </c>
-      <c r="L81" s="9">
-        <v>0</v>
-      </c>
-      <c r="M81" s="9">
-        <v>0</v>
-      </c>
-      <c r="N81" s="9">
-        <v>1</v>
-      </c>
-      <c r="O81" s="1">
-        <v>13</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>0</v>
-      </c>
-      <c r="R81" s="1">
-        <v>1</v>
-      </c>
-      <c r="S81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
-        <v>72</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1</v>
-      </c>
-      <c r="H82" s="1">
-        <v>307</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
-      <c r="J82" s="9">
-        <v>0</v>
-      </c>
-      <c r="K82" s="9">
-        <v>0</v>
-      </c>
-      <c r="L82" s="9">
-        <v>0</v>
-      </c>
-      <c r="M82" s="9">
-        <v>0</v>
-      </c>
-      <c r="N82" s="9">
-        <v>1</v>
-      </c>
-      <c r="O82" s="1">
-        <v>15</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>1</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>1</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1">
-        <v>24</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
-        <v>406</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" s="9">
-        <v>0</v>
-      </c>
-      <c r="K83" s="9">
-        <v>0</v>
-      </c>
-      <c r="L83" s="9">
-        <v>0</v>
-      </c>
-      <c r="M83" s="9">
-        <v>0</v>
-      </c>
-      <c r="N83" s="9">
-        <v>1</v>
-      </c>
-      <c r="O83" s="1">
-        <v>3</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>1</v>
-      </c>
-      <c r="R83" s="1">
-        <v>0</v>
-      </c>
-      <c r="S83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>70</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>302</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-      <c r="J84" s="9">
-        <v>0</v>
-      </c>
-      <c r="K84" s="9">
-        <v>0</v>
-      </c>
-      <c r="L84" s="9">
-        <v>0</v>
-      </c>
-      <c r="M84" s="9">
-        <v>0</v>
-      </c>
-      <c r="N84" s="9">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1">
-        <v>4</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>1</v>
-      </c>
-      <c r="R84" s="1">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1">
-        <v>51</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>444</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-      <c r="J85" s="9">
-        <v>0</v>
-      </c>
-      <c r="K85" s="9">
-        <v>0</v>
-      </c>
-      <c r="L85" s="9">
-        <v>0</v>
-      </c>
-      <c r="M85" s="9">
-        <v>0</v>
-      </c>
-      <c r="N85" s="9">
-        <v>1</v>
-      </c>
-      <c r="O85" s="1">
-        <v>3</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>1</v>
-      </c>
-      <c r="R85" s="1">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
-        <v>40</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>438</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0</v>
-      </c>
-      <c r="J86" s="9">
-        <v>0</v>
-      </c>
-      <c r="K86" s="9">
-        <v>0</v>
-      </c>
-      <c r="L86" s="9">
-        <v>0</v>
-      </c>
-      <c r="M86" s="9">
-        <v>0</v>
-      </c>
-      <c r="N86" s="9">
-        <v>1</v>
-      </c>
-      <c r="O86" s="1">
-        <v>3</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>1</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
-        <v>25</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>300</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-      <c r="J87" s="9">
-        <v>0</v>
-      </c>
-      <c r="K87" s="9">
-        <v>0</v>
-      </c>
-      <c r="L87" s="9">
-        <v>0</v>
-      </c>
-      <c r="M87" s="9">
-        <v>0</v>
-      </c>
-      <c r="N87" s="9">
-        <v>1</v>
-      </c>
-      <c r="O87" s="1">
-        <v>2</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>1</v>
-      </c>
-      <c r="R87" s="1">
-        <v>0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
-        <v>17</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="1">
-        <v>307</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0</v>
-      </c>
-      <c r="J88" s="9">
-        <v>0</v>
-      </c>
-      <c r="K88" s="9">
-        <v>0</v>
-      </c>
-      <c r="L88" s="9">
-        <v>0</v>
-      </c>
-      <c r="M88" s="9">
-        <v>0</v>
-      </c>
-      <c r="N88" s="9">
-        <v>1</v>
-      </c>
-      <c r="O88" s="1">
-        <v>3</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>1</v>
-      </c>
-      <c r="R88" s="1">
-        <v>0</v>
-      </c>
-      <c r="S88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1">
-        <v>52</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1">
-        <v>300</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-      <c r="J89" s="9">
-        <v>0</v>
-      </c>
-      <c r="K89" s="9">
-        <v>0</v>
-      </c>
-      <c r="L89" s="9">
-        <v>0</v>
-      </c>
-      <c r="M89" s="9">
-        <v>0</v>
-      </c>
-      <c r="N89" s="9">
-        <v>1</v>
-      </c>
-      <c r="O89" s="1">
-        <v>4</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>1</v>
-      </c>
-      <c r="R89" s="1">
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
-        <v>25</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>300</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-      <c r="J90" s="9">
-        <v>0</v>
-      </c>
-      <c r="K90" s="9">
-        <v>0</v>
-      </c>
-      <c r="L90" s="9">
-        <v>0</v>
-      </c>
-      <c r="M90" s="9">
-        <v>0</v>
-      </c>
-      <c r="N90" s="9">
-        <v>1</v>
-      </c>
-      <c r="O90" s="1">
-        <v>2</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>1</v>
-      </c>
-      <c r="R90" s="1">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
-        <v>17</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1">
-        <v>307</v>
-      </c>
-      <c r="I91" s="9">
-        <v>0</v>
-      </c>
-      <c r="J91" s="9">
-        <v>0</v>
-      </c>
-      <c r="K91" s="9">
-        <v>0</v>
-      </c>
-      <c r="L91" s="9">
-        <v>0</v>
-      </c>
-      <c r="M91" s="9">
-        <v>0</v>
-      </c>
-      <c r="N91" s="9">
-        <v>1</v>
-      </c>
-      <c r="O91" s="1">
-        <v>3</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>1</v>
-      </c>
-      <c r="R91" s="1">
-        <v>0</v>
-      </c>
-      <c r="S91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>50</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>313</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
-      <c r="J92" s="9">
-        <v>0</v>
-      </c>
-      <c r="K92" s="9">
-        <v>0</v>
-      </c>
-      <c r="L92" s="9">
-        <v>0</v>
-      </c>
-      <c r="M92" s="9">
-        <v>1</v>
-      </c>
-      <c r="N92" s="9">
-        <v>0</v>
-      </c>
-      <c r="O92" s="1">
-        <v>8</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>0</v>
-      </c>
-      <c r="R92" s="1">
-        <v>0</v>
-      </c>
-      <c r="S92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1</v>
-      </c>
-      <c r="D93" s="1">
-        <v>51</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>410</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-      <c r="J93" s="9">
-        <v>0</v>
-      </c>
-      <c r="K93" s="9">
-        <v>0</v>
-      </c>
-      <c r="L93" s="9">
-        <v>0</v>
-      </c>
-      <c r="M93" s="9">
-        <v>1</v>
-      </c>
-      <c r="N93" s="9">
-        <v>0</v>
-      </c>
-      <c r="O93" s="1">
-        <v>5</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1">
-        <v>0</v>
-      </c>
-      <c r="S93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" s="1">
-        <v>17</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>428</v>
-      </c>
-      <c r="I94" s="9">
-        <v>0</v>
-      </c>
-      <c r="J94" s="9">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9">
-        <v>0</v>
-      </c>
-      <c r="L94" s="9">
-        <v>0</v>
-      </c>
-      <c r="M94" s="9">
-        <v>1</v>
-      </c>
-      <c r="N94" s="9">
-        <v>0</v>
-      </c>
-      <c r="O94" s="1">
-        <v>9</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>0</v>
-      </c>
-      <c r="R94" s="1">
-        <v>0</v>
-      </c>
-      <c r="S94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>1</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
-        <v>40</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>405</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0</v>
-      </c>
-      <c r="J95" s="9">
-        <v>0</v>
-      </c>
-      <c r="K95" s="9">
-        <v>0</v>
-      </c>
-      <c r="L95" s="9">
-        <v>0</v>
-      </c>
-      <c r="M95" s="9">
-        <v>1</v>
-      </c>
-      <c r="N95" s="9">
-        <v>0</v>
-      </c>
-      <c r="O95" s="1">
-        <v>6</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>0</v>
-      </c>
-      <c r="R95" s="1">
-        <v>0</v>
-      </c>
-      <c r="S95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>1</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
-        <v>28</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>409</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0</v>
-      </c>
-      <c r="J96" s="9">
-        <v>0</v>
-      </c>
-      <c r="K96" s="9">
-        <v>0</v>
-      </c>
-      <c r="L96" s="9">
-        <v>0</v>
-      </c>
-      <c r="M96" s="9">
-        <v>1</v>
-      </c>
-      <c r="N96" s="9">
-        <v>0</v>
-      </c>
-      <c r="O96" s="1">
-        <v>6</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q96" s="1">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1">
-        <v>0</v>
-      </c>
-      <c r="S96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>1</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
-        <v>117</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-      <c r="H97" s="1">
-        <v>400</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0</v>
-      </c>
-      <c r="J97" s="9">
-        <v>0</v>
-      </c>
-      <c r="K97" s="9">
-        <v>0</v>
-      </c>
-      <c r="L97" s="9">
-        <v>0</v>
-      </c>
-      <c r="M97" s="9">
-        <v>1</v>
-      </c>
-      <c r="N97" s="9">
-        <v>0</v>
-      </c>
-      <c r="O97" s="1">
-        <v>10</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1">
-        <v>0</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1">
-        <v>51</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1</v>
-      </c>
-      <c r="H98" s="1">
-        <v>410</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0</v>
-      </c>
-      <c r="J98" s="9">
-        <v>0</v>
-      </c>
-      <c r="K98" s="9">
-        <v>0</v>
-      </c>
-      <c r="L98" s="9">
-        <v>0</v>
-      </c>
-      <c r="M98" s="9">
-        <v>1</v>
-      </c>
-      <c r="N98" s="9">
-        <v>0</v>
-      </c>
-      <c r="O98" s="1">
-        <v>5</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>0</v>
-      </c>
-      <c r="R98" s="1">
-        <v>0</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
-        <v>78</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>313</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0</v>
-      </c>
-      <c r="J99" s="9">
-        <v>0</v>
-      </c>
-      <c r="K99" s="9">
-        <v>0</v>
-      </c>
-      <c r="L99" s="9">
-        <v>0</v>
-      </c>
-      <c r="M99" s="9">
-        <v>1</v>
-      </c>
-      <c r="N99" s="9">
-        <v>0</v>
-      </c>
-      <c r="O99" s="1">
-        <v>17</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>0</v>
-      </c>
-      <c r="R99" s="1">
-        <v>0</v>
-      </c>
-      <c r="S99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
-        <v>100</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>300</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0</v>
-      </c>
-      <c r="J100" s="9">
-        <v>0</v>
-      </c>
-      <c r="K100" s="9">
-        <v>0</v>
-      </c>
-      <c r="L100" s="9">
-        <v>0</v>
-      </c>
-      <c r="M100" s="9">
-        <v>1</v>
-      </c>
-      <c r="N100" s="9">
-        <v>0</v>
-      </c>
-      <c r="O100" s="1">
-        <v>19</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0</v>
-      </c>
-      <c r="S100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1">
-        <v>11</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>300</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0</v>
-      </c>
-      <c r="J101" s="9">
-        <v>0</v>
-      </c>
-      <c r="K101" s="9">
-        <v>0</v>
-      </c>
-      <c r="L101" s="9">
-        <v>0</v>
-      </c>
-      <c r="M101" s="9">
-        <v>1</v>
-      </c>
-      <c r="N101" s="9">
-        <v>0</v>
-      </c>
-      <c r="O101" s="1">
-        <v>16</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q101" s="1">
-        <v>0</v>
-      </c>
-      <c r="R101" s="1">
-        <v>0</v>
-      </c>
-      <c r="S101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1">
-        <v>54</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <v>424</v>
-      </c>
-      <c r="I102" s="9">
-        <v>0</v>
-      </c>
-      <c r="J102" s="9">
-        <v>0</v>
-      </c>
-      <c r="K102" s="9">
-        <v>0</v>
-      </c>
-      <c r="L102" s="9">
-        <v>0</v>
-      </c>
-      <c r="M102" s="9">
-        <v>1</v>
-      </c>
-      <c r="N102" s="9">
-        <v>0</v>
-      </c>
-      <c r="O102" s="1">
-        <v>16</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>0</v>
-      </c>
-      <c r="R102" s="1">
-        <v>0</v>
-      </c>
-      <c r="S102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1">
-        <v>100</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1">
-        <v>300</v>
-      </c>
-      <c r="I103" s="9">
-        <v>0</v>
-      </c>
-      <c r="J103" s="9">
-        <v>0</v>
-      </c>
-      <c r="K103" s="9">
-        <v>0</v>
-      </c>
-      <c r="L103" s="9">
-        <v>0</v>
-      </c>
-      <c r="M103" s="9">
-        <v>1</v>
-      </c>
-      <c r="N103" s="9">
-        <v>0</v>
-      </c>
-      <c r="O103" s="1">
-        <v>19</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
-      <c r="R103" s="1">
-        <v>0</v>
-      </c>
-      <c r="S103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1">
-        <v>11</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1">
-        <v>300</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9">
-        <v>0</v>
-      </c>
-      <c r="K104" s="9">
-        <v>0</v>
-      </c>
-      <c r="L104" s="9">
-        <v>0</v>
-      </c>
-      <c r="M104" s="9">
-        <v>1</v>
-      </c>
-      <c r="N104" s="9">
-        <v>0</v>
-      </c>
-      <c r="O104" s="1">
-        <v>16</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q104" s="1">
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="S104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
-        <v>44</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1">
-        <v>305</v>
-      </c>
-      <c r="I105" s="9">
-        <v>0</v>
-      </c>
-      <c r="J105" s="9">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9">
-        <v>0</v>
-      </c>
-      <c r="L105" s="9">
-        <v>0</v>
-      </c>
-      <c r="M105" s="9">
-        <v>1</v>
-      </c>
-      <c r="N105" s="9">
-        <v>0</v>
-      </c>
-      <c r="O105" s="1">
-        <v>18</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q105" s="1">
-        <v>0</v>
-      </c>
-      <c r="R105" s="1">
-        <v>0</v>
-      </c>
-      <c r="S105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <v>54</v>
-      </c>
-      <c r="E106" s="1">
-        <v>0</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1">
-        <v>424</v>
-      </c>
-      <c r="I106" s="9">
-        <v>0</v>
-      </c>
-      <c r="J106" s="9">
-        <v>0</v>
-      </c>
-      <c r="K106" s="9">
-        <v>0</v>
-      </c>
-      <c r="L106" s="9">
-        <v>0</v>
-      </c>
-      <c r="M106" s="9">
-        <v>1</v>
-      </c>
-      <c r="N106" s="9">
-        <v>0</v>
-      </c>
-      <c r="O106" s="1">
-        <v>16</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>0</v>
-      </c>
-      <c r="R106" s="1">
-        <v>0</v>
-      </c>
-      <c r="S106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1">
-        <v>67</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>315</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-      <c r="J107" s="9">
-        <v>0</v>
-      </c>
-      <c r="K107" s="9">
-        <v>0</v>
-      </c>
-      <c r="L107" s="9">
-        <v>0</v>
-      </c>
-      <c r="M107" s="9">
-        <v>1</v>
-      </c>
-      <c r="N107" s="9">
-        <v>0</v>
-      </c>
-      <c r="O107" s="1">
-        <v>2</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>1</v>
-      </c>
-      <c r="R107" s="1">
-        <v>0</v>
-      </c>
-      <c r="S107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1">
-        <v>67</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1</v>
-      </c>
-      <c r="H108" s="1">
-        <v>315</v>
-      </c>
-      <c r="I108" s="9">
-        <v>0</v>
-      </c>
-      <c r="J108" s="9">
-        <v>0</v>
-      </c>
-      <c r="K108" s="9">
-        <v>0</v>
-      </c>
-      <c r="L108" s="9">
-        <v>0</v>
-      </c>
-      <c r="M108" s="9">
-        <v>1</v>
-      </c>
-      <c r="N108" s="9">
-        <v>0</v>
-      </c>
-      <c r="O108" s="1">
-        <v>2</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q108" s="1">
-        <v>1</v>
-      </c>
-      <c r="R108" s="1">
-        <v>0</v>
-      </c>
-      <c r="S108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1">
-        <v>34</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>1</v>
-      </c>
-      <c r="H109" s="1">
-        <v>425</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0</v>
-      </c>
-      <c r="J109" s="9">
-        <v>0</v>
-      </c>
-      <c r="K109" s="9">
-        <v>0</v>
-      </c>
-      <c r="L109" s="9">
-        <v>0</v>
-      </c>
-      <c r="M109" s="9">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9">
-        <v>0</v>
-      </c>
-      <c r="O109" s="1">
-        <v>1</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q109" s="1">
-        <v>1</v>
-      </c>
-      <c r="R109" s="1">
-        <v>0</v>
-      </c>
-      <c r="S109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
